--- a/API_project/data/Excel/search_keyword.xlsx
+++ b/API_project/data/Excel/search_keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24228" windowHeight="12540"/>
+    <workbookView windowWidth="18468" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="search_keyword" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>keyword</t>
   </si>
@@ -25,40 +25,61 @@
     <t>contact</t>
   </si>
   <si>
+    <t>contactWay</t>
+  </si>
+  <si>
     <t>上海</t>
   </si>
   <si>
+    <t>五金</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
     <t>控制器</t>
   </si>
   <si>
+    <t>节目制作</t>
+  </si>
+  <si>
     <t>companyname</t>
   </si>
   <si>
     <t>工程</t>
   </si>
   <si>
+    <t>童装店</t>
+  </si>
+  <si>
     <t>semkeyword</t>
   </si>
   <si>
     <t>中医 诊所</t>
   </si>
   <si>
+    <t>珠宝</t>
+  </si>
+  <si>
     <t>jobtitle</t>
   </si>
   <si>
     <t>服装</t>
   </si>
   <si>
+    <t>洗选煤</t>
+  </si>
+  <si>
     <t>products</t>
   </si>
   <si>
     <t>051081819981</t>
   </si>
   <si>
-    <t>漳州旅投供应链管理有限公司</t>
+    <t>装饰工程</t>
+  </si>
+  <si>
+    <t>设备</t>
   </si>
   <si>
     <t>businessscope</t>
@@ -67,7 +88,10 @@
     <t>05783154339</t>
   </si>
   <si>
-    <t>装饰工程</t>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>广告公司</t>
   </si>
   <si>
     <t>personnel</t>
@@ -76,69 +100,66 @@
     <t>05768315433</t>
   </si>
   <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>contactWay</t>
+    <t>安防监控</t>
+  </si>
+  <si>
+    <t>食品</t>
   </si>
   <si>
     <t>3158719</t>
   </si>
   <si>
-    <t>安防监控</t>
+    <t>装饰工程有限公司</t>
+  </si>
+  <si>
+    <t>建筑工程</t>
   </si>
   <si>
     <t>84830116</t>
   </si>
   <si>
-    <t>装饰工程有限公司</t>
+    <t>装饰</t>
   </si>
   <si>
     <t>0310</t>
   </si>
   <si>
-    <t>装饰</t>
+    <t>自动化</t>
   </si>
   <si>
     <t>0731</t>
   </si>
   <si>
-    <t>自动化</t>
+    <t>医疗器械</t>
   </si>
   <si>
     <t>15312313953@139.com</t>
   </si>
   <si>
-    <t>医疗器械</t>
+    <t>空调机电工程</t>
   </si>
   <si>
     <t>495166337@qq.com</t>
   </si>
   <si>
-    <t>空调机电工程</t>
+    <t>洗衣液</t>
   </si>
   <si>
     <t>12357825@qq.com</t>
   </si>
   <si>
-    <t>洗衣液</t>
+    <t>化工有限公司</t>
   </si>
   <si>
     <t>2693841270@qq.com</t>
   </si>
   <si>
-    <t>化工有限公司</t>
+    <t>软件开发</t>
   </si>
   <si>
     <t>gcwm123@163.com</t>
   </si>
   <si>
-    <t>软件开发</t>
-  </si>
-  <si>
-    <t>深圳市一览网络股份有限公司</t>
-  </si>
-  <si>
     <t>轮对 / 7件 铁科院东郊分院</t>
   </si>
   <si>
@@ -257,45 +278,6 @@
   </si>
   <si>
     <t>食品有限公司</t>
-  </si>
-  <si>
-    <t>五金</t>
-  </si>
-  <si>
-    <t>节目制作</t>
-  </si>
-  <si>
-    <t>童装店</t>
-  </si>
-  <si>
-    <t>珠宝</t>
-  </si>
-  <si>
-    <t>洗选煤</t>
-  </si>
-  <si>
-    <t>设备</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>广告公司</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>食品</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>建筑工程</t>
   </si>
   <si>
     <t>制冷设备</t>
@@ -310,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -322,65 +304,96 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,45 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -443,6 +417,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -459,14 +441,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,187 +463,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,32 +654,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,23 +675,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,159 +729,176 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,20 +1224,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1265,442 +1247,395 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>18601375275</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>13868335405</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>18223298408</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>15231030552</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
       <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
       <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
       <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="22" spans="5:5">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="24" spans="5:5">
+      <c r="E24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="28" spans="5:5">
+      <c r="E28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="32" spans="5:5">
+      <c r="E32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="45" spans="5:5">
+      <c r="E45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="46" spans="5:5">
+      <c r="E46" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="47" spans="5:5">
+      <c r="E47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="48" spans="5:5">
+      <c r="E48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="50" spans="5:5">
+      <c r="E50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="51" spans="5:5">
+      <c r="E51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="52" spans="5:5">
+      <c r="E52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="54" spans="5:5">
+      <c r="E54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="57" spans="5:5">
+      <c r="E57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="58" spans="5:5">
+      <c r="E58" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/API_project/data/Excel/search_keyword.xlsx
+++ b/API_project/data/Excel/search_keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9300"/>
+    <workbookView windowWidth="18468" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="search_keyword" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>keyword</t>
   </si>
@@ -31,6 +31,9 @@
     <t>上海</t>
   </si>
   <si>
+    <t>entName</t>
+  </si>
+  <si>
     <t>五金</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>控制器</t>
   </si>
   <si>
+    <t>衡水方良石油机械科技有限公司</t>
+  </si>
+  <si>
     <t>节目制作</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>工程</t>
   </si>
   <si>
+    <t>昆山科诺泰电气设备有限公司</t>
+  </si>
+  <si>
     <t>童装店</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>中医 诊所</t>
   </si>
   <si>
+    <t>云南海润茧丝绸有限公司</t>
+  </si>
+  <si>
     <t>珠宝</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>服装</t>
   </si>
   <si>
+    <t>吉林省吉电国际贸易有限公司</t>
+  </si>
+  <si>
     <t>洗选煤</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>装饰工程</t>
   </si>
   <si>
+    <t>上海新托门业有限公司江山分公司</t>
+  </si>
+  <si>
     <t>设备</t>
   </si>
   <si>
@@ -89,6 +107,9 @@
   </si>
   <si>
     <t>教育</t>
+  </si>
+  <si>
+    <t>武汉世纪远荣生物科技有限责任公司</t>
   </si>
   <si>
     <t>广告公司</t>
@@ -291,12 +312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -304,12 +325,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -318,66 +419,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,59 +473,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -463,13 +489,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,157 +639,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +680,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,8 +742,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,216 +780,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,20 +1251,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,13 +1280,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>18601375275</v>
@@ -1268,374 +1298,392 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>13868335405</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>18223298408</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>15231030552</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
